--- a/Result.xlsx
+++ b/Result.xlsx
@@ -16,7 +16,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+  <si>
+    <t>row number</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
   <si>
     <t>kofi</t>
   </si>
@@ -362,36 +371,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2" spans="1:3">
       <c r="A2">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="C3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="C4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="C5">
-        <v>700</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -401,54 +406,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
